--- a/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ALTB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,58 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
-        <v>42643</v>
-      </c>
       <c r="H7" s="2">
-        <v>42551</v>
+        <v>44196</v>
       </c>
       <c r="I7" s="2">
-        <v>42460</v>
+        <v>44104</v>
       </c>
       <c r="J7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,13 +739,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,14 +770,17 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,14 +802,17 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,13 +963,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -963,13 +988,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -997,8 +1025,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1071,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,13 +1135,16 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1126,8 +1167,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,13 +1231,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1213,13 +1263,16 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1242,8 +1295,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,14 +1344,14 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
@@ -1300,8 +1359,11 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,13 +1455,16 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1405,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1416,8 +1487,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,13 +1519,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1463,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1474,42 +1551,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
-        <v>42643</v>
-      </c>
       <c r="H38" s="2">
-        <v>42551</v>
+        <v>44196</v>
       </c>
       <c r="I38" s="2">
-        <v>42460</v>
+        <v>44104</v>
       </c>
       <c r="J38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1618,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1555,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1563,8 +1648,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,19 +1712,22 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1642,16 +1736,19 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1776,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1700,16 +1800,19 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1840,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1872,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2032,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1932,16 +2056,19 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2094,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2009,23 +2141,26 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2045,25 +2180,28 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -2074,16 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,17 +2380,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -2248,16 +2404,19 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,13 +2554,16 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E72" s="3">
         <v>-300</v>
@@ -2400,22 +2572,25 @@
         <v>-300</v>
       </c>
       <c r="G72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,17 +2682,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
@@ -2522,16 +2706,19 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,47 +2746,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
-        <v>42643</v>
-      </c>
       <c r="H80" s="2">
-        <v>42551</v>
+        <v>44196</v>
       </c>
       <c r="I80" s="2">
-        <v>42460</v>
+        <v>44104</v>
       </c>
       <c r="J80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2611,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -2622,8 +2815,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3021,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2827,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -2838,8 +3053,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3337,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3369,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3401,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3172,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -3181,6 +3431,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>ALTB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,62 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,13 +746,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,14 +780,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,14 +815,17 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,17 +990,18 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -991,13 +1018,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1028,8 +1058,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1074,8 +1108,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,17 +1178,20 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1170,8 +1213,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,17 +1283,20 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1266,17 +1318,20 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1298,8 +1353,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1458,17 +1528,20 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -1490,8 +1563,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,17 +1598,20 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -1554,45 +1633,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1742,13 +1838,16 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,8 +1878,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1806,13 +1908,16 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,8 +1948,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,8 +2158,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2062,13 +2188,16 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2121,14 +2252,17 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2153,14 +2287,17 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2186,13 +2323,16 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2200,11 +2340,11 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2218,13 +2358,16 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +2538,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2392,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -2410,13 +2568,16 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,8 +2728,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2566,7 +2740,7 @@
         <v>-600</v>
       </c>
       <c r="E72" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="F72" s="3">
         <v>-300</v>
@@ -2584,13 +2758,16 @@
         <v>-300</v>
       </c>
       <c r="K72" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,8 +2868,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2694,11 +2880,11 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
@@ -2715,10 +2901,13 @@
         <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,54 +2938,60 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +3013,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3372,8 +3618,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3434,6 +3686,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>ALTB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,13 +753,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -783,14 +790,17 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,14 +828,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,8 +1017,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1000,11 +1027,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1021,13 +1048,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,11 +1065,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,8 +1221,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1190,11 +1233,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1216,8 +1259,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1295,11 +1347,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1321,8 +1373,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,11 +1385,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1540,11 +1613,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1610,11 +1689,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1636,48 +1715,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1841,13 +1937,16 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1911,13 +2013,16 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +2284,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2191,13 +2317,16 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2255,14 +2386,17 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2290,14 +2424,17 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2326,13 +2463,16 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2343,11 +2483,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
@@ -2361,13 +2501,16 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2553,11 +2711,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
@@ -2571,13 +2729,16 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,8 +2902,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2743,7 +2917,7 @@
         <v>-600</v>
       </c>
       <c r="F72" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="G72" s="3">
         <v>-300</v>
@@ -2761,13 +2935,16 @@
         <v>-300</v>
       </c>
       <c r="L72" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,8 +3054,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2883,11 +3069,11 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
@@ -2904,10 +3090,13 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2990,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>ALTB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,73 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,13 +763,19 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,14 +806,20 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,14 +850,20 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +878,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +918,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1006,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1069,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1030,14 +1083,14 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1051,13 +1104,19 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1068,14 +1127,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1094,8 +1153,14 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1175,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1215,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1259,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1303,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1236,14 +1321,14 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1262,8 +1347,14 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1391,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1435,14 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1350,14 +1453,14 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1376,8 +1479,14 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1388,14 +1497,14 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1414,8 +1523,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,31 +1567,37 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1490,8 +1611,14 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1699,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1743,14 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1616,14 +1761,14 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1787,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1831,14 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1692,14 +1849,14 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1718,51 +1875,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1964,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1831,8 +2004,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +2048,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2092,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1940,13 +2131,19 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2180,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2016,13 +2219,19 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2268,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2312,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2356,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2444,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2488,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2532,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2320,13 +2571,19 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2616,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2389,14 +2650,20 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2427,14 +2694,20 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2466,13 +2739,19 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2486,14 +2765,14 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -2504,13 +2783,19 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2832,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2876,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +3008,14 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2714,14 +3029,14 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -2732,13 +3047,19 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,8 +3246,14 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2920,10 +3267,10 @@
         <v>-600</v>
       </c>
       <c r="G72" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="H72" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="I72" s="3">
         <v>-300</v>
@@ -2938,13 +3285,19 @@
         <v>-300</v>
       </c>
       <c r="M72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3422,14 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3072,14 +3443,14 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
@@ -3093,10 +3464,16 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3510,63 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3188,14 +3577,14 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3214,8 +3603,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3625,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3665,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3885,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3929,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3951,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3991,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +4079,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +4123,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4317,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4361,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4405,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4447,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
